--- a/crawling/savedata/supercraw.xlsx
+++ b/crawling/savedata/supercraw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1154">
   <si>
     <t>순위</t>
   </si>
@@ -121,334 +121,3361 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>김해꼬마tv</t>
+  </si>
+  <si>
     <t>가로세로연구소</t>
   </si>
   <si>
+    <t>쌈돌이TV</t>
+  </si>
+  <si>
+    <t>열린공감TV</t>
+  </si>
+  <si>
+    <t>중년게이머 김실장</t>
+  </si>
+  <si>
+    <t>시사타파TV</t>
+  </si>
+  <si>
+    <t>LIMKILLER [림킬러골프TV]</t>
+  </si>
+  <si>
+    <t>이문주</t>
+  </si>
+  <si>
+    <t>피집사</t>
+  </si>
+  <si>
+    <t>냉철tv</t>
+  </si>
+  <si>
     <t>Erzhan</t>
   </si>
   <si>
-    <t>열린공감TV</t>
-  </si>
-  <si>
-    <t>김소연힐링음악여행</t>
+    <t>흑운장TV [BLACKTUBE]</t>
   </si>
   <si>
     <t>유재일</t>
   </si>
   <si>
-    <t>오상사가간다</t>
+    <t>도리도리 DooriDoori 비트코인 교육방송</t>
+  </si>
+  <si>
+    <t>이선옥TV</t>
+  </si>
+  <si>
+    <t>BJ상만</t>
+  </si>
+  <si>
+    <t>수와진TV 👩‍❤‍👨</t>
+  </si>
+  <si>
+    <t>논리왕 전기</t>
+  </si>
+  <si>
+    <t>카광</t>
+  </si>
+  <si>
+    <t>이지성TV</t>
+  </si>
+  <si>
+    <t>강민TV</t>
+  </si>
+  <si>
+    <t>풍자테레비</t>
+  </si>
+  <si>
+    <t>Super K-슈퍼개미김정환</t>
+  </si>
+  <si>
+    <t>베짱이엔터테인먼트</t>
+  </si>
+  <si>
+    <t>머프TV - 비트코인 실전단타</t>
+  </si>
+  <si>
+    <t>백브리핑</t>
+  </si>
+  <si>
+    <t>박호두</t>
+  </si>
+  <si>
+    <t>질래's 펌핑tv</t>
+  </si>
+  <si>
+    <t>팔천사와강아지세상</t>
+  </si>
+  <si>
+    <t>박완규 RWND</t>
+  </si>
+  <si>
+    <t>추니즘</t>
   </si>
   <si>
     <t>롯본기 김교수</t>
   </si>
   <si>
+    <t>엠육법사Tv</t>
+  </si>
+  <si>
+    <t>나까무라tv</t>
+  </si>
+  <si>
+    <t>미디어워치TV</t>
+  </si>
+  <si>
+    <t>코인흥신소</t>
+  </si>
+  <si>
+    <t>야식이</t>
+  </si>
+  <si>
     <t>Hyper Genius[초천재]</t>
   </si>
   <si>
-    <t>강민TV</t>
-  </si>
-  <si>
-    <t>수와진TV 👩‍❤‍👨</t>
-  </si>
-  <si>
-    <t>태국푸차이 [puchai tv]</t>
-  </si>
-  <si>
-    <t>쫀득TV</t>
-  </si>
-  <si>
-    <t>따이TV</t>
-  </si>
-  <si>
-    <t>팔천사와강아지세상</t>
+    <t>지안스캣 Jian's Cat</t>
+  </si>
+  <si>
+    <t>동준사장tv</t>
+  </si>
+  <si>
+    <t>미친연애TV</t>
+  </si>
+  <si>
+    <t>제이슨박TV</t>
+  </si>
+  <si>
+    <t>레오맘과 동행Leomam tv</t>
+  </si>
+  <si>
+    <t>나군TV MrNaTV</t>
+  </si>
+  <si>
+    <t>손봄향의 사생활</t>
+  </si>
+  <si>
+    <t>고양이뉴스</t>
+  </si>
+  <si>
+    <t>고누리</t>
+  </si>
+  <si>
+    <t>임성환TV</t>
+  </si>
+  <si>
+    <t>필차트Feel Chart bitcoin</t>
+  </si>
+  <si>
+    <t>똘끼100%</t>
+  </si>
+  <si>
+    <t>다썰남TV</t>
+  </si>
+  <si>
+    <t>노돌리</t>
+  </si>
+  <si>
+    <t>슈콘</t>
+  </si>
+  <si>
+    <t>3분투자</t>
+  </si>
+  <si>
+    <t>독고다이</t>
+  </si>
+  <si>
+    <t>[공식] 새날</t>
+  </si>
+  <si>
+    <t>냥신TV</t>
+  </si>
+  <si>
+    <t>하니윤정tv</t>
+  </si>
+  <si>
+    <t>쌀이없어요</t>
+  </si>
+  <si>
+    <t>로자르TV [배틀그라운드]</t>
+  </si>
+  <si>
+    <t>박상운TV</t>
+  </si>
+  <si>
+    <t>나리</t>
+  </si>
+  <si>
+    <t>창원가족TV</t>
+  </si>
+  <si>
+    <t>미디어A</t>
+  </si>
+  <si>
+    <t>그려 안그려 최은혜TV</t>
+  </si>
+  <si>
+    <t>죠니월드</t>
+  </si>
+  <si>
+    <t>소행성612 주식방송</t>
+  </si>
+  <si>
+    <t>DJ INA Official</t>
+  </si>
+  <si>
+    <t>미사리TV</t>
+  </si>
+  <si>
+    <t>도니파크</t>
+  </si>
+  <si>
+    <t>고양이마대장</t>
+  </si>
+  <si>
+    <t>바그냥</t>
+  </si>
+  <si>
+    <t>톡송talksong</t>
+  </si>
+  <si>
+    <t>세드TV</t>
+  </si>
+  <si>
+    <t>임현정의마스카라</t>
+  </si>
+  <si>
+    <t>두리광고3</t>
+  </si>
+  <si>
+    <t>유미스타</t>
+  </si>
+  <si>
+    <t>블링쥬</t>
+  </si>
+  <si>
+    <t>미스터원의 필리핀 라이프Mr Won</t>
+  </si>
+  <si>
+    <t>안정모의 주식투자</t>
+  </si>
+  <si>
+    <t>송광호TV작곡가</t>
+  </si>
+  <si>
+    <t>산적TV 밥굽남</t>
   </si>
   <si>
     <t>돌비공포라디오</t>
   </si>
   <si>
-    <t>코미꼬</t>
-  </si>
-  <si>
-    <t>Super K-슈퍼개미김정환</t>
-  </si>
-  <si>
-    <t>조코피TV [NBA해설 조현일]</t>
+    <t>명천가족TV</t>
+  </si>
+  <si>
+    <t>하면되겠지</t>
+  </si>
+  <si>
+    <t>추가열TV [G.Y.CHOO]</t>
+  </si>
+  <si>
+    <t>미래대안행동</t>
+  </si>
+  <si>
+    <t>철민TV</t>
+  </si>
+  <si>
+    <t>김세돈라이브통</t>
+  </si>
+  <si>
+    <t>담양오리</t>
+  </si>
+  <si>
+    <t>김동명</t>
+  </si>
+  <si>
+    <t>왕딸기TV</t>
+  </si>
+  <si>
+    <t>쌈용</t>
+  </si>
+  <si>
+    <t>권승현</t>
+  </si>
+  <si>
+    <t>닥표간장</t>
+  </si>
+  <si>
+    <t>삼성이TV</t>
+  </si>
+  <si>
+    <t>제이와나 JAYWANA</t>
+  </si>
+  <si>
+    <t>다미 비트코인</t>
+  </si>
+  <si>
+    <t>럭키빽</t>
+  </si>
+  <si>
+    <t>김민서장구채널</t>
+  </si>
+  <si>
+    <t>유상록TV</t>
+  </si>
+  <si>
+    <t>일찐푸딩</t>
+  </si>
+  <si>
+    <t>-Musica di Ferro철의음악</t>
+  </si>
+  <si>
+    <t>더깊이10</t>
+  </si>
+  <si>
+    <t>미기MIGI TV</t>
+  </si>
+  <si>
+    <t>창기TV</t>
+  </si>
+  <si>
+    <t>엠장기획</t>
+  </si>
+  <si>
+    <t>정봉주 TV</t>
+  </si>
+  <si>
+    <t>원진짱tv</t>
+  </si>
+  <si>
+    <t>이재EJ</t>
+  </si>
+  <si>
+    <t>차명진TV</t>
+  </si>
+  <si>
+    <t>내시십분</t>
+  </si>
+  <si>
+    <t>경덕[Gyeongdeok]</t>
+  </si>
+  <si>
+    <t>진향란노래TV*다시태어난 여자*</t>
+  </si>
+  <si>
+    <t>주식김사부팀</t>
+  </si>
+  <si>
+    <t>고성국TV</t>
+  </si>
+  <si>
+    <t>나팔박 TV</t>
+  </si>
+  <si>
+    <t>자빱TV</t>
+  </si>
+  <si>
+    <t>친친뮤직</t>
+  </si>
+  <si>
+    <t>갓마루TV</t>
+  </si>
+  <si>
+    <t>크로커다일 남자훈련소</t>
+  </si>
+  <si>
+    <t>까꿍프로_바둑채널</t>
+  </si>
+  <si>
+    <t>햄크루 HEMCREW</t>
+  </si>
+  <si>
+    <t>신튜브 신혜식</t>
+  </si>
+  <si>
+    <t>홍단이Tv장민</t>
+  </si>
+  <si>
+    <t>구르미gurumi</t>
+  </si>
+  <si>
+    <t>REMIXKOREA OFFICIAL</t>
+  </si>
+  <si>
+    <t>선호라이브TV</t>
+  </si>
+  <si>
+    <t>빠다TV</t>
+  </si>
+  <si>
+    <t>홍시TV-유도트롯 홍시</t>
+  </si>
+  <si>
+    <t>안될과학 Unrealscience</t>
+  </si>
+  <si>
+    <t>김성룡 바둑랩</t>
+  </si>
+  <si>
+    <t>우주하마</t>
+  </si>
+  <si>
+    <t>메달리Golf DJ</t>
+  </si>
+  <si>
+    <t>김마통kimmatong</t>
+  </si>
+  <si>
+    <t>수삼티비</t>
+  </si>
+  <si>
+    <t>유니메드TV</t>
+  </si>
+  <si>
+    <t>주식왕용느</t>
+  </si>
+  <si>
+    <t>빠삐용Motor hub</t>
+  </si>
+  <si>
+    <t>핑키유니</t>
+  </si>
+  <si>
+    <t>손상대TV</t>
+  </si>
+  <si>
+    <t>남영동대부업자</t>
+  </si>
+  <si>
+    <t>안똘TV</t>
+  </si>
+  <si>
+    <t>껨슈</t>
+  </si>
+  <si>
+    <t>노마에TV</t>
+  </si>
+  <si>
+    <t>HITMAN 김선생</t>
+  </si>
+  <si>
+    <t>디스이즈포유</t>
+  </si>
+  <si>
+    <t>박진주입니다 ParkJinJu</t>
+  </si>
+  <si>
+    <t>작은거인 윤경tv</t>
+  </si>
+  <si>
+    <t>장윤철[쭉튜브]</t>
+  </si>
+  <si>
+    <t>PROKKO TV</t>
+  </si>
+  <si>
+    <t>TV러셀</t>
+  </si>
+  <si>
+    <t>신의두뇌-비트코인 경제TV</t>
+  </si>
+  <si>
+    <t>팍오티비 POTV</t>
+  </si>
+  <si>
+    <t>락맨TV</t>
+  </si>
+  <si>
+    <t>폭군</t>
+  </si>
+  <si>
+    <t>양나리 / Nari Yang 【NIJISANJI KR】</t>
+  </si>
+  <si>
+    <t>엣지러브 edge love</t>
+  </si>
+  <si>
+    <t>아선티비</t>
+  </si>
+  <si>
+    <t>박지은 9단</t>
+  </si>
+  <si>
+    <t>혁찌니</t>
+  </si>
+  <si>
+    <t>남규 NAMGYU</t>
+  </si>
+  <si>
+    <t>이작가</t>
+  </si>
+  <si>
+    <t>일본에서도 한번 살아보지, 뭐</t>
+  </si>
+  <si>
+    <t>BJ톨</t>
+  </si>
+  <si>
+    <t>로또분석가</t>
+  </si>
+  <si>
+    <t>마오밴드MaoBand</t>
+  </si>
+  <si>
+    <t>오뽀가디언- 비트코인TV</t>
+  </si>
+  <si>
+    <t>성환 라이브</t>
+  </si>
+  <si>
+    <t>이송원TV</t>
+  </si>
+  <si>
+    <t>김천돌집임홍진</t>
+  </si>
+  <si>
+    <t>긴급속보 홍철기</t>
+  </si>
+  <si>
+    <t>문갑식의 진짜 TV</t>
+  </si>
+  <si>
+    <t>박훈TV</t>
+  </si>
+  <si>
+    <t>글자네 YouTube</t>
+  </si>
+  <si>
+    <t>CALLING GOD 콜링갓</t>
+  </si>
+  <si>
+    <t>엘베다&amp;이렘TV Elveda&amp;İremTV</t>
+  </si>
+  <si>
+    <t>Brandteller4배기성강사</t>
+  </si>
+  <si>
+    <t>왕눈이에기</t>
+  </si>
+  <si>
+    <t>구스TV</t>
+  </si>
+  <si>
+    <t>송작가TV</t>
+  </si>
+  <si>
+    <t>cpbc TV_가톨릭콘텐츠의 모든것</t>
+  </si>
+  <si>
+    <t>김꽁냥</t>
+  </si>
+  <si>
+    <t>가수 손세욱 TV</t>
+  </si>
+  <si>
+    <t>박명원 TV</t>
+  </si>
+  <si>
+    <t>쿠씨</t>
+  </si>
+  <si>
+    <t>이로니 or 이세진</t>
+  </si>
+  <si>
+    <t>도건</t>
+  </si>
+  <si>
+    <t>의정부 한울도령</t>
+  </si>
+  <si>
+    <t>세아 스토리</t>
+  </si>
+  <si>
+    <t>주식단테-작전주,경제차트분석,주식전문</t>
+  </si>
+  <si>
+    <t>권승남의 구멍가게</t>
+  </si>
+  <si>
+    <t>[팟빵] 매불쇼</t>
+  </si>
+  <si>
+    <t>꧁ঔৣ 포천광재ঔৣ꧂</t>
+  </si>
+  <si>
+    <t>미남의운전교실</t>
+  </si>
+  <si>
+    <t>정의구현 박완석</t>
+  </si>
+  <si>
+    <t>빙구가든 Bing goo garden</t>
+  </si>
+  <si>
+    <t>고발뉴스TV</t>
+  </si>
+  <si>
+    <t>도봉박홍기</t>
+  </si>
+  <si>
+    <t>가수신나TV-매일오후4시</t>
+  </si>
+  <si>
+    <t>더 청라</t>
+  </si>
+  <si>
+    <t>나스닥다우존스</t>
+  </si>
+  <si>
+    <t>물망초TV</t>
+  </si>
+  <si>
+    <t>고길동TV</t>
+  </si>
+  <si>
+    <t>만신장군 명인 김성주 선생님</t>
+  </si>
+  <si>
+    <t>곽동수TV</t>
+  </si>
+  <si>
+    <t>표은지Eunji Pyoapple</t>
+  </si>
+  <si>
+    <t>여제TV</t>
+  </si>
+  <si>
+    <t>스트리머 사또</t>
+  </si>
+  <si>
+    <t>어쩐다TV FeelPD</t>
+  </si>
+  <si>
+    <t>김정우TV[매튜브]</t>
+  </si>
+  <si>
+    <t>안의현 해피딴따라TV</t>
+  </si>
+  <si>
+    <t>백이삭TV</t>
+  </si>
+  <si>
+    <t>원탑명리</t>
+  </si>
+  <si>
+    <t>YEJIgayageum_가야금예지</t>
+  </si>
+  <si>
+    <t>김영환TV</t>
+  </si>
+  <si>
+    <t>너알아TV</t>
+  </si>
+  <si>
+    <t>원준 가요세상</t>
+  </si>
+  <si>
+    <t>배달민족의 배달방송</t>
+  </si>
+  <si>
+    <t>E트렌드</t>
+  </si>
+  <si>
+    <t>Bros. TV 브로스티비</t>
+  </si>
+  <si>
+    <t>고고 스페인 GoGo Spain</t>
+  </si>
+  <si>
+    <t>조선일보</t>
+  </si>
+  <si>
+    <t>함흥미녀가수노수현TV</t>
+  </si>
+  <si>
+    <t>만만</t>
+  </si>
+  <si>
+    <t>김명운TV [QUEENTUBE]</t>
+  </si>
+  <si>
+    <t>해피 카펠라</t>
+  </si>
+  <si>
+    <t>애주가TV참PD</t>
+  </si>
+  <si>
+    <t>RPQ 알피큐 TV</t>
+  </si>
+  <si>
+    <t>행강</t>
+  </si>
+  <si>
+    <t>손미나TV노래강사</t>
+  </si>
+  <si>
+    <t>팝송쌤TV</t>
+  </si>
+  <si>
+    <t>임순남TV</t>
+  </si>
+  <si>
+    <t>윤쿵쿵TV</t>
+  </si>
+  <si>
+    <t>용스커버리지</t>
   </si>
   <si>
     <t>정치신세계</t>
   </si>
   <si>
-    <t>코인흥신소</t>
-  </si>
-  <si>
-    <t>우상준</t>
-  </si>
-  <si>
-    <t>까막이</t>
-  </si>
-  <si>
-    <t>냉철tv</t>
-  </si>
-  <si>
-    <t>질래's 펌핑tv</t>
-  </si>
-  <si>
-    <t>슈콘</t>
-  </si>
-  <si>
-    <t>담양오리</t>
-  </si>
-  <si>
-    <t>선호라이브TV</t>
+    <t>윤나경TV</t>
+  </si>
+  <si>
+    <t>BJ가오나시티</t>
+  </si>
+  <si>
+    <t>이동은 DONGEUN_LEE</t>
+  </si>
+  <si>
+    <t>현욱공주</t>
   </si>
   <si>
     <t>어링TV</t>
   </si>
   <si>
-    <t>김기수</t>
-  </si>
-  <si>
-    <t>청초한두유커플DooYooCouple</t>
+    <t>코태(Kotae)</t>
+  </si>
+  <si>
+    <t>떳다!송만기</t>
+  </si>
+  <si>
+    <t>친절한별님</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>예오니TV</t>
+  </si>
+  <si>
+    <t>은평제일교회</t>
+  </si>
+  <si>
+    <t>스트릿TV [비트코인 5년차 전업트레이더]</t>
+  </si>
+  <si>
+    <t>쌈싸미TV</t>
+  </si>
+  <si>
+    <t>짝찌TV</t>
+  </si>
+  <si>
+    <t>김성훈Tv</t>
+  </si>
+  <si>
+    <t>깡&amp;고하자TV</t>
+  </si>
+  <si>
+    <t>채서연tv 선물</t>
+  </si>
+  <si>
+    <t>채선혜 화,목7시방송일요일10시방송</t>
+  </si>
+  <si>
+    <t>김도헌 대림대교수</t>
+  </si>
+  <si>
+    <t>캡틴김수호</t>
+  </si>
+  <si>
+    <t>람자쿤</t>
+  </si>
+  <si>
+    <t>김채호의 필름찢기</t>
+  </si>
+  <si>
+    <t>Sakurako Omal</t>
+  </si>
+  <si>
+    <t>PD바다</t>
+  </si>
+  <si>
+    <t>핫스TV</t>
+  </si>
+  <si>
+    <t>최인호TV</t>
+  </si>
+  <si>
+    <t>Han Asian2880</t>
+  </si>
+  <si>
+    <t>버럭이와 장금이 TV</t>
+  </si>
+  <si>
+    <t>화재 hwa jaeTV(월오후4시♥화.목밤10시)</t>
+  </si>
+  <si>
+    <t>삐라</t>
+  </si>
+  <si>
+    <t>노래샘 양님TV</t>
+  </si>
+  <si>
+    <t>IQMusic아이큐뮤직</t>
+  </si>
+  <si>
+    <t>한태부부 태국홍이형tv</t>
+  </si>
+  <si>
+    <t>허샘</t>
+  </si>
+  <si>
+    <t>OPS tv</t>
+  </si>
+  <si>
+    <t>복부인</t>
+  </si>
+  <si>
+    <t>케이팝스토리TV</t>
+  </si>
+  <si>
+    <t>낭심포스TV</t>
+  </si>
+  <si>
+    <t>이은재tv한국교회방송</t>
+  </si>
+  <si>
+    <t>민영아TV</t>
+  </si>
+  <si>
+    <t>짝대기당구TV유라</t>
+  </si>
+  <si>
+    <t>서초동이야기</t>
+  </si>
+  <si>
+    <t>로건씨유튜브</t>
+  </si>
+  <si>
+    <t>갓용기카오스</t>
+  </si>
+  <si>
+    <t>창구</t>
+  </si>
+  <si>
+    <t>빅보스</t>
+  </si>
+  <si>
+    <t>다정나라</t>
+  </si>
+  <si>
+    <t>[점]천수tv</t>
+  </si>
+  <si>
+    <t>크락션TV</t>
+  </si>
+  <si>
+    <t>스타일가이드 최겨울</t>
+  </si>
+  <si>
+    <t>두겨나짱tv</t>
+  </si>
+  <si>
+    <t>남부지검TV</t>
+  </si>
+  <si>
+    <t>승복이TV</t>
+  </si>
+  <si>
+    <t>휴게이소 Hyugayso</t>
+  </si>
+  <si>
+    <t>마카오블랙엔젤</t>
+  </si>
+  <si>
+    <t>버드리세상</t>
+  </si>
+  <si>
+    <t>JUJU YamYam</t>
+  </si>
+  <si>
+    <t>최원주tv별이된사랑</t>
+  </si>
+  <si>
+    <t>강돌스TV</t>
+  </si>
+  <si>
+    <t>오대산 월정사</t>
+  </si>
+  <si>
+    <t>삼천포백서</t>
+  </si>
+  <si>
+    <t>심뽕티비</t>
+  </si>
+  <si>
+    <t>타로계의장구경!!</t>
+  </si>
+  <si>
+    <t>칠도와삼순이 7&amp;3 LIVE TV</t>
+  </si>
+  <si>
+    <t>#서태승, #라보티비</t>
   </si>
   <si>
     <t>#가로세로연구소, #가세연</t>
   </si>
   <si>
+    <t>#모바일게임, #게임리뷰</t>
+  </si>
+  <si>
+    <t>#열린공감, #열린민주당</t>
+  </si>
+  <si>
+    <t>#리니지M, #리니지2M</t>
+  </si>
+  <si>
+    <t>#시사타파, #문재인</t>
+  </si>
+  <si>
+    <t>#필드, #드라이버</t>
+  </si>
+  <si>
+    <t>#이문주, #리니지</t>
+  </si>
+  <si>
+    <t>#집사, #동물이슈</t>
+  </si>
+  <si>
+    <t>#전업투자자, #전업투자</t>
+  </si>
+  <si>
     <t>#바카라, #이기는법</t>
   </si>
   <si>
-    <t>#열린공감, #열린민주당</t>
-  </si>
-  <si>
-    <t>#김소연노래교실, #음방</t>
+    <t>#스타, #스타크래프트</t>
   </si>
   <si>
     <t>#유재일, #정치평론</t>
   </si>
   <si>
-    <t>#오상사가간다, #라재웅</t>
+    <t>#암호화폐, #도리도리코인</t>
+  </si>
+  <si>
+    <t>#우먼스플레인, #기본권</t>
+  </si>
+  <si>
+    <t>#아프리카BJ, #마약</t>
+  </si>
+  <si>
+    <t>#수와진, #사랑</t>
+  </si>
+  <si>
+    <t>#전기, #머니게임</t>
+  </si>
+  <si>
+    <t>#윤덕규, #카광</t>
+  </si>
+  <si>
+    <t>#독서, #강의</t>
+  </si>
+  <si>
+    <t>#강민, #리마스터</t>
+  </si>
+  <si>
+    <t>#풍자, #젠더</t>
+  </si>
+  <si>
+    <t>#주식투자, #주식투자</t>
+  </si>
+  <si>
+    <t>#무당, #점집</t>
+  </si>
+  <si>
+    <t>#비트코인, #가상화폐</t>
+  </si>
+  <si>
+    <t>#백총재, #백광현</t>
+  </si>
+  <si>
+    <t>#박호두, #주식</t>
+  </si>
+  <si>
+    <t>#조질래, #질래</t>
+  </si>
+  <si>
+    <t>#반려견, #유기견</t>
+  </si>
+  <si>
+    <t>#라이즈, #추니즘</t>
   </si>
   <si>
     <t>#일본, #동경</t>
   </si>
   <si>
+    <t>#법사, #리니지2m</t>
+  </si>
+  <si>
+    <t>#변희재, #박근혜</t>
+  </si>
+  <si>
+    <t>#비트코인, #암호화폐</t>
+  </si>
+  <si>
+    <t>#야식, #야식이</t>
+  </si>
+  <si>
     <t>#한강, #손정민</t>
   </si>
   <si>
-    <t>#강민, #리마스터</t>
-  </si>
-  <si>
-    <t>#수와진, #사랑</t>
-  </si>
-  <si>
-    <t>#thailand, #태국</t>
-  </si>
-  <si>
-    <t>#쫀득, #j가문</t>
-  </si>
-  <si>
-    <t>#실시간, #Live</t>
-  </si>
-  <si>
-    <t>#반려견, #유기견</t>
+    <t>#고양이, #猫</t>
+  </si>
+  <si>
+    <t>#게이, #트랜스</t>
+  </si>
+  <si>
+    <t>#연애, #남자심리</t>
+  </si>
+  <si>
+    <t>#마카오필리핀카지노, #도박중독</t>
+  </si>
+  <si>
+    <t>#레오맘, #김제시</t>
+  </si>
+  <si>
+    <t>#라오킹, #모바일게임</t>
+  </si>
+  <si>
+    <t>#손봄향, #먹방</t>
+  </si>
+  <si>
+    <t>#고양이뉴스, #원재윤</t>
+  </si>
+  <si>
+    <t>#만화, #애니메이션</t>
+  </si>
+  <si>
+    <t>#임성환, #노래강사임성환</t>
+  </si>
+  <si>
+    <t>#비트코인, #BTC</t>
+  </si>
+  <si>
+    <t>#비트코인, #코인</t>
+  </si>
+  <si>
+    <t>#투잡, #결혼</t>
+  </si>
+  <si>
+    <t>#노돌리, #머머리</t>
+  </si>
+  <si>
+    <t>#비트코인, #이오스</t>
+  </si>
+  <si>
+    <t>#비트코인, #알트코인</t>
+  </si>
+  <si>
+    <t>#김호중, #고맙소</t>
+  </si>
+  <si>
+    <t>#새날, #새가날아든다</t>
+  </si>
+  <si>
+    <t>#고양이, #나응식</t>
+  </si>
+  <si>
+    <t>#가수품바하니윤정미스터트롯, #하니윤정</t>
+  </si>
+  <si>
+    <t>#트랜스젠더, #트젠</t>
+  </si>
+  <si>
+    <t>#배틀그라운드, #배그</t>
+  </si>
+  <si>
+    <t>#박상운라이브</t>
+  </si>
+  <si>
+    <t>#리니지M, #리니지2m</t>
+  </si>
+  <si>
+    <t>#자유, #정의</t>
+  </si>
+  <si>
+    <t>#그려안그려최은혜tv, #풍금</t>
+  </si>
+  <si>
+    <t>#로스트아크, #죠니월드</t>
+  </si>
+  <si>
+    <t>#주식, #주식강의</t>
+  </si>
+  <si>
+    <t>#koreandj, #djina</t>
+  </si>
+  <si>
+    <t>#미사리라이브카페, #미사리</t>
+  </si>
+  <si>
+    <t>#박상돈, #팬텀싱어</t>
+  </si>
+  <si>
+    <t>#사랑, #고양이</t>
+  </si>
+  <si>
+    <t>#개그우먼, #미녀</t>
+  </si>
+  <si>
+    <t>#이호섭, #이채운</t>
+  </si>
+  <si>
+    <t>#세드, #모바일배그</t>
+  </si>
+  <si>
+    <t>#임현정, #트로트</t>
+  </si>
+  <si>
+    <t>#명천, #박훈</t>
+  </si>
+  <si>
+    <t>#유미, #youme</t>
+  </si>
+  <si>
+    <t>#모바일배그, #PUBGM</t>
+  </si>
+  <si>
+    <t>#필리핀, #미스터원</t>
+  </si>
+  <si>
+    <t>#주식, #주식투자</t>
+  </si>
+  <si>
+    <t>#송광호, #미운사랑</t>
+  </si>
+  <si>
+    <t>#산적, #밥굽남</t>
   </si>
   <si>
     <t>#공포라디오, #공포라디오돌비</t>
   </si>
   <si>
-    <t>#코미꼬, #김병선</t>
-  </si>
-  <si>
-    <t>#주식투자, #주식투자</t>
-  </si>
-  <si>
-    <t>#NBA, #조현일</t>
+    <t>#조폭, #건달</t>
+  </si>
+  <si>
+    <t>#대깨문</t>
+  </si>
+  <si>
+    <t>#음악, #음악커버</t>
+  </si>
+  <si>
+    <t>#양은이파, #영화보스</t>
+  </si>
+  <si>
+    <t>#통기타라이브, #미사리</t>
+  </si>
+  <si>
+    <t>#넷마블, #이문주</t>
+  </si>
+  <si>
+    <t>#김동명, #부활</t>
+  </si>
+  <si>
+    <t>#리니지, #리니지리마스터</t>
+  </si>
+  <si>
+    <t>#ENTJ, #스푸닝</t>
+  </si>
+  <si>
+    <t>#명적, #안영</t>
+  </si>
+  <si>
+    <t>#창기tv, #추적자tv</t>
+  </si>
+  <si>
+    <t>#고양이, #제이와나</t>
+  </si>
+  <si>
+    <t>#바이비트, #박호두</t>
+  </si>
+  <si>
+    <t>#스타크래프트, #빨무</t>
+  </si>
+  <si>
+    <t>#김민서장구, #트로트장구</t>
+  </si>
+  <si>
+    <t>#유상록, #유상록TV</t>
+  </si>
+  <si>
+    <t>#흉가, #귀신</t>
+  </si>
+  <si>
+    <t>#VLLO, #철의음악</t>
+  </si>
+  <si>
+    <t>#아카데미, #시사</t>
+  </si>
+  <si>
+    <t>#미기쇼, #migi</t>
+  </si>
+  <si>
+    <t>#엠장기획, #잡스러운연애</t>
+  </si>
+  <si>
+    <t>#정봉주, #정봉주tv</t>
+  </si>
+  <si>
+    <t>#메이크업, #남자메이크업</t>
+  </si>
+  <si>
+    <t>#차명진, #차명진TV</t>
+  </si>
+  <si>
+    <t>#내시십분, #김영민</t>
+  </si>
+  <si>
+    <t>#흉가, #폐가</t>
+  </si>
+  <si>
+    <t>#진향란노래TV, #전화노래자랑</t>
+  </si>
+  <si>
+    <t>#주식, #주식교육</t>
+  </si>
+  <si>
+    <t>#고성국TV, #고성국</t>
+  </si>
+  <si>
+    <t>#나팔박, #애창곡, #나팔박</t>
+  </si>
+  <si>
+    <t>#마인크래프트, #마크상황극</t>
+  </si>
+  <si>
+    <t>#보컬, #보컬트레이닝</t>
+  </si>
+  <si>
+    <t>#서든, #서든어택</t>
+  </si>
+  <si>
+    <t>#남자훈련소, #남자</t>
+  </si>
+  <si>
+    <t>#바둑, #게임</t>
+  </si>
+  <si>
+    <t>#햄크루, #햄프리덤</t>
+  </si>
+  <si>
+    <t>#공연, #장민tv</t>
+  </si>
+  <si>
+    <t>#박호두, #비트코인</t>
+  </si>
+  <si>
+    <t>#가요리믹스, #리믹스코리아</t>
+  </si>
+  <si>
+    <t>#양선호, #선호라이브TV</t>
+  </si>
+  <si>
+    <t>#가수홍시, #홍시</t>
+  </si>
+  <si>
+    <t>#과학, #물리</t>
+  </si>
+  <si>
+    <t>#김성룡바둑랩, #김성룡</t>
+  </si>
+  <si>
+    <t>#병맛게임, #ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>#골프, #아마추어</t>
+  </si>
+  <si>
+    <t>#김마통, #백수</t>
+  </si>
+  <si>
+    <t>#리니지, #리니지2m</t>
+  </si>
+  <si>
+    <t>#유니메드TV, #나훈아</t>
+  </si>
+  <si>
+    <t>#용느, #주식</t>
+  </si>
+  <si>
+    <t>#오토바이, #모터사이클</t>
+  </si>
+  <si>
+    <t>#핑키유니, #로블록스</t>
+  </si>
+  <si>
+    <t>#손상대, #손상대TV</t>
+  </si>
+  <si>
+    <t>#주식투자, #주식</t>
+  </si>
+  <si>
+    <t>#dog, #cat</t>
+  </si>
+  <si>
+    <t>#게임, #플스</t>
+  </si>
+  <si>
+    <t>#대구맛집, #ASMR</t>
+  </si>
+  <si>
+    <t>#백수김선생, #선상낚시</t>
+  </si>
+  <si>
+    <t>#NBA, #느바</t>
+  </si>
+  <si>
+    <t>#개그우먼, #보이시</t>
+  </si>
+  <si>
+    <t>#장윤철, #쭉튜브</t>
+  </si>
+  <si>
+    <t>#피아노, #아프리카TV</t>
+  </si>
+  <si>
+    <t>#아파트, #부동산</t>
+  </si>
+  <si>
+    <t>#암호화폐, #비트코인</t>
+  </si>
+  <si>
+    <t>#태국, #국제커플</t>
+  </si>
+  <si>
+    <t>#노무현, #문재인</t>
+  </si>
+  <si>
+    <t>#VTuber, #니지산지</t>
+  </si>
+  <si>
+    <t>#bgm, #cafe</t>
+  </si>
+  <si>
+    <t>#배스, #배스낚시</t>
+  </si>
+  <si>
+    <t>#박지은9단, #바둑</t>
+  </si>
+  <si>
+    <t>#노래, #기타</t>
+  </si>
+  <si>
+    <t>#게이, #gay</t>
+  </si>
+  <si>
+    <t>#일본생활, #한일커플</t>
+  </si>
+  <si>
+    <t>#시사뉴스, #사회운동</t>
+  </si>
+  <si>
+    <t>#로또분석가, #로또명당</t>
+  </si>
+  <si>
+    <t>#탑골가요, #Maoband</t>
+  </si>
+  <si>
+    <t>#비트코인, #오뽀</t>
+  </si>
+  <si>
+    <t>#가수, #성환</t>
+  </si>
+  <si>
+    <t>#이송원, #김어준</t>
+  </si>
+  <si>
+    <t>#상식, #시사</t>
+  </si>
+  <si>
+    <t>#문갑식, #진짜</t>
+  </si>
+  <si>
+    <t>#깡패, #건달</t>
+  </si>
+  <si>
+    <t>#메이플스토리, #메이플</t>
+  </si>
+  <si>
+    <t>#기도, #기독교</t>
+  </si>
+  <si>
+    <t>#터키, #터키여행</t>
+  </si>
+  <si>
+    <t>#록펠러, #4차산업혁명</t>
+  </si>
+  <si>
+    <t>#아부가르시아, #디오디오에기</t>
+  </si>
+  <si>
+    <t>#Aion, #창기TV</t>
+  </si>
+  <si>
+    <t>#송작가, #시사</t>
+  </si>
+  <si>
+    <t>#가톨릭평화방송, #cpbc</t>
+  </si>
+  <si>
+    <t>#고양이, #길냥이</t>
+  </si>
+  <si>
+    <t>#손세욱, #7080</t>
+  </si>
+  <si>
+    <t>#가수박명원, #박명원</t>
+  </si>
+  <si>
+    <t>#낚시, #원투낚시</t>
+  </si>
+  <si>
+    <t>#studywitmme, #스터디윗미</t>
+  </si>
+  <si>
+    <t>#도건, #리니지M</t>
+  </si>
+  <si>
+    <t>#하늘tv, #하늘티비</t>
+  </si>
+  <si>
+    <t>#버츄얼유튜버, #버츄얼</t>
+  </si>
+  <si>
+    <t>#증권, #주식초보</t>
+  </si>
+  <si>
+    <t>#가요교실, #통기타</t>
+  </si>
+  <si>
+    <t>#매불쇼, #정영진</t>
+  </si>
+  <si>
+    <t>#포천광재</t>
+  </si>
+  <si>
+    <t>#미남의운전교실, #초보운전</t>
+  </si>
+  <si>
+    <t>#박완석, #대머리</t>
+  </si>
+  <si>
+    <t>#웰시코기, #강아지</t>
+  </si>
+  <si>
+    <t>#고발뉴스, #이상호</t>
+  </si>
+  <si>
+    <t>#부동산, #강남</t>
+  </si>
+  <si>
+    <t>#청라국제도시, #청라총연</t>
+  </si>
+  <si>
+    <t>#주식, #차트</t>
+  </si>
+  <si>
+    <t>#강아지, #고양이</t>
+  </si>
+  <si>
+    <t>#만신장군, #명인</t>
+  </si>
+  <si>
+    <t>#곽쌤, #곽동수TV</t>
+  </si>
+  <si>
+    <t>#표은지, #DJ</t>
+  </si>
+  <si>
+    <t>#여제, #여제TV</t>
+  </si>
+  <si>
+    <t>#리니지2M, #넷마블</t>
+  </si>
+  <si>
+    <t>#강원도, #춘천</t>
+  </si>
+  <si>
+    <t>#김정우, #매정우</t>
+  </si>
+  <si>
+    <t>#신성, #빨간구두</t>
+  </si>
+  <si>
+    <t>#동영상</t>
+  </si>
+  <si>
+    <t>#명리, #사주</t>
+  </si>
+  <si>
+    <t>#gayageum, #music</t>
+  </si>
+  <si>
+    <t>#김영환, #김영환TV</t>
+  </si>
+  <si>
+    <t>#전광훈, #너알아</t>
+  </si>
+  <si>
+    <t>#오토바이, #배달대행</t>
+  </si>
+  <si>
+    <t>#재테크, #주식전망</t>
+  </si>
+  <si>
+    <t>#스페인, #스페인여행</t>
+  </si>
+  <si>
+    <t>#조선일보, #조선</t>
+  </si>
+  <si>
+    <t>#노수현, #가수노수현</t>
+  </si>
+  <si>
+    <t>#만만, #리니지M</t>
+  </si>
+  <si>
+    <t>#김명운, #저그</t>
+  </si>
+  <si>
+    <t>#라디오, #스푼</t>
+  </si>
+  <si>
+    <t>#술안주, #참피디</t>
+  </si>
+  <si>
+    <t>#주식, #힙합</t>
+  </si>
+  <si>
+    <t>#행복한, #강아지들이</t>
+  </si>
+  <si>
+    <t>#트로트, #경남</t>
+  </si>
+  <si>
+    <t>#통기타라이브, #비대면공연</t>
+  </si>
+  <si>
+    <t>#세븐나이츠2, #세나2</t>
+  </si>
+  <si>
+    <t>#용스커버리지, #드랙음튜닝</t>
   </si>
   <si>
     <t>#정치, #시사</t>
   </si>
   <si>
-    <t>#비트코인, #암호화폐</t>
-  </si>
-  <si>
-    <t>#우상준, #개그</t>
-  </si>
-  <si>
-    <t>#다정한부부, #뻑가</t>
-  </si>
-  <si>
-    <t>#전업투자자, #전업투자</t>
-  </si>
-  <si>
-    <t>#조질래, #질래</t>
-  </si>
-  <si>
-    <t>#비트코인, #이오스</t>
-  </si>
-  <si>
-    <t>#넷마블, #이문주</t>
-  </si>
-  <si>
-    <t>#양선호, #선호라이브TV</t>
-  </si>
-  <si>
-    <t>#어링, #게이</t>
-  </si>
-  <si>
-    <t>#김기수, #뷰티크리에이터</t>
-  </si>
-  <si>
-    <t>#유도, #먹방</t>
-  </si>
-  <si>
-    <t>₩5,216,893</t>
-  </si>
-  <si>
-    <t>₩2,856,113</t>
-  </si>
-  <si>
-    <t>₩1,941,968</t>
-  </si>
-  <si>
-    <t>₩1,226,890</t>
-  </si>
-  <si>
-    <t>₩1,224,952</t>
-  </si>
-  <si>
-    <t>₩1,224,430</t>
-  </si>
-  <si>
-    <t>₩1,167,386</t>
-  </si>
-  <si>
-    <t>₩1,161,698</t>
-  </si>
-  <si>
-    <t>₩1,158,843</t>
-  </si>
-  <si>
-    <t>₩1,051,599</t>
-  </si>
-  <si>
-    <t>₩1,034,371</t>
-  </si>
-  <si>
-    <t>₩1,025,331</t>
-  </si>
-  <si>
-    <t>₩995,480</t>
-  </si>
-  <si>
-    <t>₩994,749</t>
-  </si>
-  <si>
-    <t>₩991,161</t>
-  </si>
-  <si>
-    <t>₩907,521</t>
-  </si>
-  <si>
-    <t>₩894,333</t>
-  </si>
-  <si>
-    <t>₩876,129</t>
-  </si>
-  <si>
-    <t>₩870,008</t>
-  </si>
-  <si>
-    <t>₩807,394</t>
-  </si>
-  <si>
-    <t>₩771,941</t>
-  </si>
-  <si>
-    <t>₩734,535</t>
-  </si>
-  <si>
-    <t>₩731,604</t>
-  </si>
-  <si>
-    <t>₩727,490</t>
-  </si>
-  <si>
-    <t>₩713,282</t>
-  </si>
-  <si>
-    <t>₩681,162</t>
-  </si>
-  <si>
-    <t>₩628,654</t>
-  </si>
-  <si>
-    <t>₩627,280</t>
-  </si>
-  <si>
-    <t>₩620,953</t>
-  </si>
-  <si>
-    <t>₩618,935</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>#윤나경, #나이야가라</t>
+  </si>
+  <si>
+    <t>#리니지m, #만만</t>
+  </si>
+  <si>
+    <t>#이동은, #음악</t>
+  </si>
+  <si>
+    <t>#나는, #현욱공주다</t>
+  </si>
+  <si>
+    <t>#어링, #꽃자</t>
+  </si>
+  <si>
+    <t>#LOL, #이렐리아</t>
+  </si>
+  <si>
+    <t>#떳다, #송만기</t>
+  </si>
+  <si>
+    <t>#리니지2M, #LMJ</t>
+  </si>
+  <si>
+    <t>#배스낚시, #배스</t>
+  </si>
+  <si>
+    <t>#예배, #기도</t>
+  </si>
+  <si>
+    <t>#비트코인, #투자</t>
+  </si>
+  <si>
+    <t>#리니지2m, #이문주</t>
+  </si>
+  <si>
+    <t>#일본소녀상, #일본소녀상윤미향</t>
+  </si>
+  <si>
+    <t>#라이브여왕</t>
+  </si>
+  <si>
+    <t>#프리비젼스, #김도헌</t>
+  </si>
+  <si>
+    <t>#카스, #CSO</t>
+  </si>
+  <si>
+    <t>#오토체스, #Queen</t>
+  </si>
+  <si>
+    <t>#영화, #전랑2</t>
+  </si>
+  <si>
+    <t>#バーチャルYoutuber, #サッカー</t>
+  </si>
+  <si>
+    <t>#포켓몬스터, #소드</t>
+  </si>
+  <si>
+    <t>#배그, #배틀그라운드</t>
+  </si>
+  <si>
+    <t>#시사, #민주당</t>
+  </si>
+  <si>
+    <t>#Han, #Asian2880</t>
+  </si>
+  <si>
+    <t>#품바, #여행</t>
+  </si>
+  <si>
+    <t>#kpop, #music</t>
+  </si>
+  <si>
+    <t>#오버워치, #OVERWATCH</t>
+  </si>
+  <si>
+    <t>#아이큐, #가수아이큐</t>
+  </si>
+  <si>
+    <t>#태국, #파타야</t>
+  </si>
+  <si>
+    <t>#허샘, #game</t>
+  </si>
+  <si>
+    <t>#홀덤, #포커</t>
+  </si>
+  <si>
+    <t>#먹방, #일상생활</t>
+  </si>
+  <si>
+    <t>#케이팝스토리, #무명가수이야기</t>
+  </si>
+  <si>
+    <t>#전광훈목사, #이은재목사</t>
+  </si>
+  <si>
+    <t>#민영아, #민영아TV</t>
+  </si>
+  <si>
+    <t>#당구, #미녀당구</t>
+  </si>
+  <si>
+    <t>#법원</t>
+  </si>
+  <si>
+    <t>#특수부대, #특전사</t>
+  </si>
+  <si>
+    <t>#카오스, #CCB</t>
+  </si>
+  <si>
+    <t>#세나2, #세븐나이츠2</t>
+  </si>
+  <si>
+    <t>#빅보스, #초이스</t>
+  </si>
+  <si>
+    <t>#다정나라, #오딘</t>
+  </si>
+  <si>
+    <t>#김여포, #여포</t>
+  </si>
+  <si>
+    <t>#25톤카고, #화물차</t>
+  </si>
+  <si>
+    <t>#패션, #남자</t>
+  </si>
+  <si>
+    <t>#리니지m, #리니지2m</t>
+  </si>
+  <si>
+    <t>#바이크, #혼자놀기</t>
+  </si>
+  <si>
+    <t>#게이, #게이커플</t>
+  </si>
+  <si>
+    <t>#강원랜드, #카지노</t>
+  </si>
+  <si>
+    <t>#버드리, #각설이</t>
+  </si>
+  <si>
+    <t>#골목식당, #연돈</t>
+  </si>
+  <si>
+    <t>#리니지2레볼루션, #리니지</t>
+  </si>
+  <si>
+    <t>#오대산, #월정사</t>
+  </si>
+  <si>
+    <t>#삼백, #삼천포문어낚시</t>
+  </si>
+  <si>
+    <t>#심뽕티비, #대구여행</t>
+  </si>
+  <si>
+    <t>#타로, #타로라이브</t>
+  </si>
+  <si>
+    <t>#칠도와삼순이, #아침마당, #각설이, #품바, #미스미스터, #라이브방송, #칠도와삼순이</t>
+  </si>
+  <si>
+    <t>₩3,771,987</t>
+  </si>
+  <si>
+    <t>₩2,443,043</t>
+  </si>
+  <si>
+    <t>₩2,272,756</t>
+  </si>
+  <si>
+    <t>₩2,063,433</t>
+  </si>
+  <si>
+    <t>₩1,667,250</t>
+  </si>
+  <si>
+    <t>₩1,365,887</t>
+  </si>
+  <si>
+    <t>₩1,316,473</t>
+  </si>
+  <si>
+    <t>₩1,253,547</t>
+  </si>
+  <si>
+    <t>₩1,224,124</t>
+  </si>
+  <si>
+    <t>₩1,211,524</t>
+  </si>
+  <si>
+    <t>₩1,154,159</t>
+  </si>
+  <si>
+    <t>₩1,149,519</t>
+  </si>
+  <si>
+    <t>₩1,122,566</t>
+  </si>
+  <si>
+    <t>₩1,089,712</t>
+  </si>
+  <si>
+    <t>₩1,085,789</t>
+  </si>
+  <si>
+    <t>₩1,003,988</t>
+  </si>
+  <si>
+    <t>₩943,391</t>
+  </si>
+  <si>
+    <t>₩924,203</t>
+  </si>
+  <si>
+    <t>₩911,352</t>
+  </si>
+  <si>
+    <t>₩884,791</t>
+  </si>
+  <si>
+    <t>₩874,545</t>
+  </si>
+  <si>
+    <t>₩858,641</t>
+  </si>
+  <si>
+    <t>₩844,357</t>
+  </si>
+  <si>
+    <t>₩834,092</t>
+  </si>
+  <si>
+    <t>₩811,446</t>
+  </si>
+  <si>
+    <t>₩794,470</t>
+  </si>
+  <si>
+    <t>₩786,955</t>
+  </si>
+  <si>
+    <t>₩779,658</t>
+  </si>
+  <si>
+    <t>₩777,607</t>
+  </si>
+  <si>
+    <t>₩766,656</t>
+  </si>
+  <si>
+    <t>₩744,934</t>
+  </si>
+  <si>
+    <t>₩740,199</t>
+  </si>
+  <si>
+    <t>₩730,117</t>
+  </si>
+  <si>
+    <t>₩729,382</t>
+  </si>
+  <si>
+    <t>₩713,459</t>
+  </si>
+  <si>
+    <t>₩692,883</t>
+  </si>
+  <si>
+    <t>₩659,175</t>
+  </si>
+  <si>
+    <t>₩653,106</t>
+  </si>
+  <si>
+    <t>₩649,896</t>
+  </si>
+  <si>
+    <t>₩646,348</t>
+  </si>
+  <si>
+    <t>₩644,534</t>
+  </si>
+  <si>
+    <t>₩637,536</t>
+  </si>
+  <si>
+    <t>₩626,382</t>
+  </si>
+  <si>
+    <t>₩610,818</t>
+  </si>
+  <si>
+    <t>₩606,652</t>
+  </si>
+  <si>
+    <t>₩592,439</t>
+  </si>
+  <si>
+    <t>₩584,467</t>
+  </si>
+  <si>
+    <t>₩583,386</t>
+  </si>
+  <si>
+    <t>₩557,457</t>
+  </si>
+  <si>
+    <t>₩549,102</t>
+  </si>
+  <si>
+    <t>₩545,982</t>
+  </si>
+  <si>
+    <t>₩543,496</t>
+  </si>
+  <si>
+    <t>₩529,540</t>
+  </si>
+  <si>
+    <t>₩510,499</t>
+  </si>
+  <si>
+    <t>₩508,593</t>
+  </si>
+  <si>
+    <t>₩506,904</t>
+  </si>
+  <si>
+    <t>₩499,663</t>
+  </si>
+  <si>
+    <t>₩491,079</t>
+  </si>
+  <si>
+    <t>₩487,895</t>
+  </si>
+  <si>
+    <t>₩471,695</t>
+  </si>
+  <si>
+    <t>₩469,501</t>
+  </si>
+  <si>
+    <t>₩468,703</t>
+  </si>
+  <si>
+    <t>₩467,706</t>
+  </si>
+  <si>
+    <t>₩462,269</t>
+  </si>
+  <si>
+    <t>₩458,731</t>
+  </si>
+  <si>
+    <t>₩456,838</t>
+  </si>
+  <si>
+    <t>₩447,779</t>
+  </si>
+  <si>
+    <t>₩447,163</t>
+  </si>
+  <si>
+    <t>₩442,003</t>
+  </si>
+  <si>
+    <t>₩433,396</t>
+  </si>
+  <si>
+    <t>₩433,001</t>
+  </si>
+  <si>
+    <t>₩432,686</t>
+  </si>
+  <si>
+    <t>₩427,716</t>
+  </si>
+  <si>
+    <t>₩415,351</t>
+  </si>
+  <si>
+    <t>₩388,924</t>
+  </si>
+  <si>
+    <t>₩387,889</t>
+  </si>
+  <si>
+    <t>₩386,358</t>
+  </si>
+  <si>
+    <t>₩382,940</t>
+  </si>
+  <si>
+    <t>₩380,946</t>
+  </si>
+  <si>
+    <t>₩379,948</t>
+  </si>
+  <si>
+    <t>₩369,309</t>
+  </si>
+  <si>
+    <t>₩368,728</t>
+  </si>
+  <si>
+    <t>₩366,296</t>
+  </si>
+  <si>
+    <t>₩359,642</t>
+  </si>
+  <si>
+    <t>₩358,009</t>
+  </si>
+  <si>
+    <t>₩357,013</t>
+  </si>
+  <si>
+    <t>₩356,015</t>
+  </si>
+  <si>
+    <t>₩354,392</t>
+  </si>
+  <si>
+    <t>₩352,346</t>
+  </si>
+  <si>
+    <t>₩342,951</t>
+  </si>
+  <si>
+    <t>₩340,059</t>
+  </si>
+  <si>
+    <t>₩336,997</t>
+  </si>
+  <si>
+    <t>₩334,076</t>
+  </si>
+  <si>
+    <t>₩332,960</t>
+  </si>
+  <si>
+    <t>₩319,516</t>
+  </si>
+  <si>
+    <t>₩315,390</t>
+  </si>
+  <si>
+    <t>₩312,851</t>
+  </si>
+  <si>
+    <t>₩309,597</t>
+  </si>
+  <si>
+    <t>₩309,529</t>
+  </si>
+  <si>
+    <t>₩309,145</t>
+  </si>
+  <si>
+    <t>₩307,801</t>
+  </si>
+  <si>
+    <t>₩305,983</t>
+  </si>
+  <si>
+    <t>₩304,035</t>
+  </si>
+  <si>
+    <t>₩303,120</t>
+  </si>
+  <si>
+    <t>₩302,108</t>
+  </si>
+  <si>
+    <t>₩301,620</t>
+  </si>
+  <si>
+    <t>₩298,574</t>
+  </si>
+  <si>
+    <t>₩298,367</t>
+  </si>
+  <si>
+    <t>₩296,606</t>
+  </si>
+  <si>
+    <t>₩293,900</t>
+  </si>
+  <si>
+    <t>₩286,397</t>
+  </si>
+  <si>
+    <t>₩284,199</t>
+  </si>
+  <si>
+    <t>₩283,117</t>
+  </si>
+  <si>
+    <t>₩279,227</t>
+  </si>
+  <si>
+    <t>₩276,237</t>
+  </si>
+  <si>
+    <t>₩274,337</t>
+  </si>
+  <si>
+    <t>₩273,970</t>
+  </si>
+  <si>
+    <t>₩272,156</t>
+  </si>
+  <si>
+    <t>₩270,738</t>
+  </si>
+  <si>
+    <t>₩269,997</t>
+  </si>
+  <si>
+    <t>₩263,713</t>
+  </si>
+  <si>
+    <t>₩260,996</t>
+  </si>
+  <si>
+    <t>₩255,094</t>
+  </si>
+  <si>
+    <t>₩254,544</t>
+  </si>
+  <si>
+    <t>₩254,296</t>
+  </si>
+  <si>
+    <t>₩253,197</t>
+  </si>
+  <si>
+    <t>₩251,366</t>
+  </si>
+  <si>
+    <t>₩250,311</t>
+  </si>
+  <si>
+    <t>₩249,310</t>
+  </si>
+  <si>
+    <t>₩245,887</t>
+  </si>
+  <si>
+    <t>₩245,423</t>
+  </si>
+  <si>
+    <t>₩245,221</t>
+  </si>
+  <si>
+    <t>₩244,823</t>
+  </si>
+  <si>
+    <t>₩242,301</t>
+  </si>
+  <si>
+    <t>₩241,588</t>
+  </si>
+  <si>
+    <t>₩240,781</t>
+  </si>
+  <si>
+    <t>₩239,338</t>
+  </si>
+  <si>
+    <t>₩230,368</t>
+  </si>
+  <si>
+    <t>₩229,365</t>
+  </si>
+  <si>
+    <t>₩228,729</t>
+  </si>
+  <si>
+    <t>₩228,363</t>
+  </si>
+  <si>
+    <t>₩228,077</t>
+  </si>
+  <si>
+    <t>₩227,379</t>
+  </si>
+  <si>
+    <t>₩224,376</t>
+  </si>
+  <si>
+    <t>₩223,880</t>
+  </si>
+  <si>
+    <t>₩221,798</t>
+  </si>
+  <si>
+    <t>₩219,393</t>
+  </si>
+  <si>
+    <t>₩217,961</t>
+  </si>
+  <si>
+    <t>₩215,641</t>
+  </si>
+  <si>
+    <t>₩214,407</t>
+  </si>
+  <si>
+    <t>₩203,098</t>
+  </si>
+  <si>
+    <t>₩199,448</t>
+  </si>
+  <si>
+    <t>₩197,564</t>
+  </si>
+  <si>
+    <t>₩194,462</t>
+  </si>
+  <si>
+    <t>₩193,651</t>
+  </si>
+  <si>
+    <t>₩193,465</t>
+  </si>
+  <si>
+    <t>₩193,287</t>
+  </si>
+  <si>
+    <t>₩191,470</t>
+  </si>
+  <si>
+    <t>₩190,174</t>
+  </si>
+  <si>
+    <t>₩189,822</t>
+  </si>
+  <si>
+    <t>₩187,784</t>
+  </si>
+  <si>
+    <t>₩184,399</t>
+  </si>
+  <si>
+    <t>₩181,498</t>
+  </si>
+  <si>
+    <t>₩181,398</t>
+  </si>
+  <si>
+    <t>₩180,401</t>
+  </si>
+  <si>
+    <t>₩180,172</t>
+  </si>
+  <si>
+    <t>₩179,503</t>
+  </si>
+  <si>
+    <t>₩178,476</t>
+  </si>
+  <si>
+    <t>₩176,998</t>
+  </si>
+  <si>
+    <t>₩176,956</t>
+  </si>
+  <si>
+    <t>₩176,512</t>
+  </si>
+  <si>
+    <t>₩175,951</t>
+  </si>
+  <si>
+    <t>₩175,790</t>
+  </si>
+  <si>
+    <t>₩175,514</t>
+  </si>
+  <si>
+    <t>₩175,096</t>
+  </si>
+  <si>
+    <t>₩173,502</t>
+  </si>
+  <si>
+    <t>₩172,024</t>
+  </si>
+  <si>
+    <t>₩171,199</t>
+  </si>
+  <si>
+    <t>₩170,656</t>
+  </si>
+  <si>
+    <t>₩170,528</t>
+  </si>
+  <si>
+    <t>₩169,537</t>
+  </si>
+  <si>
+    <t>₩169,531</t>
+  </si>
+  <si>
+    <t>₩168,534</t>
+  </si>
+  <si>
+    <t>₩167,322</t>
+  </si>
+  <si>
+    <t>₩166,498</t>
+  </si>
+  <si>
+    <t>₩166,439</t>
+  </si>
+  <si>
+    <t>₩165,642</t>
+  </si>
+  <si>
+    <t>₩163,534</t>
+  </si>
+  <si>
+    <t>₩161,042</t>
+  </si>
+  <si>
+    <t>₩160,257</t>
+  </si>
+  <si>
+    <t>₩159,558</t>
+  </si>
+  <si>
+    <t>₩157,723</t>
+  </si>
+  <si>
+    <t>₩157,004</t>
+  </si>
+  <si>
+    <t>₩155,684</t>
+  </si>
+  <si>
+    <t>₩155,470</t>
+  </si>
+  <si>
+    <t>₩154,572</t>
+  </si>
+  <si>
+    <t>₩152,478</t>
+  </si>
+  <si>
+    <t>₩150,004</t>
+  </si>
+  <si>
+    <t>₩149,592</t>
+  </si>
+  <si>
+    <t>₩149,586</t>
+  </si>
+  <si>
+    <t>₩146,999</t>
+  </si>
+  <si>
+    <t>₩145,782</t>
+  </si>
+  <si>
+    <t>₩145,503</t>
+  </si>
+  <si>
+    <t>₩145,198</t>
+  </si>
+  <si>
+    <t>₩145,006</t>
+  </si>
+  <si>
+    <t>₩144,700</t>
+  </si>
+  <si>
+    <t>₩144,600</t>
+  </si>
+  <si>
+    <t>₩144,477</t>
+  </si>
+  <si>
+    <t>₩143,603</t>
+  </si>
+  <si>
+    <t>₩142,316</t>
+  </si>
+  <si>
+    <t>₩140,748</t>
+  </si>
+  <si>
+    <t>₩139,614</t>
+  </si>
+  <si>
+    <t>₩137,849</t>
+  </si>
+  <si>
+    <t>₩136,624</t>
+  </si>
+  <si>
+    <t>₩135,926</t>
+  </si>
+  <si>
+    <t>₩135,625</t>
+  </si>
+  <si>
+    <t>₩134,627</t>
+  </si>
+  <si>
+    <t>₩134,528</t>
+  </si>
+  <si>
+    <t>₩133,032</t>
+  </si>
+  <si>
+    <t>₩131,220</t>
+  </si>
+  <si>
+    <t>₩130,437</t>
+  </si>
+  <si>
+    <t>₩129,647</t>
+  </si>
+  <si>
+    <t>₩129,641</t>
+  </si>
+  <si>
+    <t>₩129,566</t>
+  </si>
+  <si>
+    <t>₩128,644</t>
+  </si>
+  <si>
+    <t>₩127,866</t>
+  </si>
+  <si>
+    <t>₩124,655</t>
+  </si>
+  <si>
+    <t>₩123,085</t>
+  </si>
+  <si>
+    <t>₩122,636</t>
+  </si>
+  <si>
+    <t>₩122,461</t>
+  </si>
+  <si>
+    <t>₩122,262</t>
+  </si>
+  <si>
+    <t>₩122,162</t>
+  </si>
+  <si>
+    <t>₩122,144</t>
+  </si>
+  <si>
+    <t>₩121,861</t>
+  </si>
+  <si>
+    <t>₩121,663</t>
+  </si>
+  <si>
+    <t>₩119,999</t>
+  </si>
+  <si>
+    <t>₩119,703</t>
+  </si>
+  <si>
+    <t>₩119,670</t>
+  </si>
+  <si>
+    <t>₩119,669</t>
+  </si>
+  <si>
+    <t>₩119,270</t>
+  </si>
+  <si>
+    <t>₩119,234</t>
+  </si>
+  <si>
+    <t>₩118,672</t>
+  </si>
+  <si>
+    <t>₩118,472</t>
+  </si>
+  <si>
+    <t>₩117,515</t>
+  </si>
+  <si>
+    <t>₩116,677</t>
+  </si>
+  <si>
+    <t>₩116,647</t>
+  </si>
+  <si>
+    <t>₩116,202</t>
+  </si>
+  <si>
+    <t>₩115,680</t>
+  </si>
+  <si>
+    <t>₩114,999</t>
+  </si>
+  <si>
+    <t>₩114,931</t>
+  </si>
+  <si>
+    <t>₩114,683</t>
+  </si>
+  <si>
+    <t>₩113,685</t>
+  </si>
+  <si>
+    <t>₩113,075</t>
+  </si>
+  <si>
+    <t>₩112,688</t>
+  </si>
+  <si>
+    <t>₩111,691</t>
+  </si>
+  <si>
+    <t>₩109,696</t>
+  </si>
+  <si>
+    <t>₩104,710</t>
+  </si>
+  <si>
+    <t>₩104,552</t>
+  </si>
+  <si>
+    <t>₩103,895</t>
+  </si>
+  <si>
+    <t>₩103,115</t>
+  </si>
+  <si>
+    <t>₩102,958</t>
+  </si>
+  <si>
+    <t>₩101,799</t>
+  </si>
+  <si>
+    <t>₩101,719</t>
+  </si>
+  <si>
+    <t>₩101,626</t>
+  </si>
+  <si>
+    <t>₩100,996</t>
+  </si>
+  <si>
+    <t>₩100,320</t>
+  </si>
+  <si>
+    <t>₩99,999</t>
+  </si>
+  <si>
+    <t>₩99,724</t>
+  </si>
+  <si>
+    <t>₩98,926</t>
+  </si>
+  <si>
+    <t>₩98,083</t>
+  </si>
+  <si>
+    <t>₩95,452</t>
+  </si>
+  <si>
+    <t>₩94,944</t>
+  </si>
+  <si>
+    <t>₩94,741</t>
+  </si>
+  <si>
+    <t>₩92,999</t>
+  </si>
+  <si>
+    <t>₩90,749</t>
   </si>
 </sst>
 </file>
@@ -806,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,16 +3861,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>879</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -851,16 +3878,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>606</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>880</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -868,16 +3895,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>607</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>881</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -885,16 +3912,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>608</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>882</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -902,16 +3929,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>609</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>883</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -919,16 +3946,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>610</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>884</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -936,16 +3963,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>611</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>885</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -953,16 +3980,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>612</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>886</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -970,16 +3997,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>613</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>887</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -987,16 +4014,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>888</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1004,16 +4031,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>615</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1021,16 +4048,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>616</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>890</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1038,16 +4065,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>617</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>891</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1055,16 +4082,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>618</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>892</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1072,16 +4099,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>893</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,16 +4116,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>894</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,16 +4133,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>895</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,16 +4150,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>622</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>896</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,16 +4167,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>623</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>897</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,16 +4184,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>624</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>898</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,16 +4201,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>625</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>899</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,16 +4218,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>626</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>900</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,16 +4235,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>901</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1225,16 +4252,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>902</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1242,16 +4269,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>629</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>903</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1259,16 +4286,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>630</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>904</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1276,16 +4303,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>631</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>905</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1293,16 +4320,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>632</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>906</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,16 +4337,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>633</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>907</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,16 +4354,4540 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" t="s">
+        <v>908</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" t="s">
+        <v>634</v>
+      </c>
+      <c r="D32" t="s">
+        <v>909</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" t="s">
+        <v>635</v>
+      </c>
+      <c r="D33" t="s">
+        <v>910</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>636</v>
+      </c>
+      <c r="D34" t="s">
+        <v>911</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" t="s">
+        <v>912</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>637</v>
+      </c>
+      <c r="D36" t="s">
+        <v>913</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>638</v>
+      </c>
+      <c r="D37" t="s">
+        <v>914</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>639</v>
+      </c>
+      <c r="D38" t="s">
+        <v>915</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" t="s">
+        <v>640</v>
+      </c>
+      <c r="D39" t="s">
+        <v>916</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C40" t="s">
+        <v>641</v>
+      </c>
+      <c r="D40" t="s">
+        <v>917</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" t="s">
+        <v>642</v>
+      </c>
+      <c r="D41" t="s">
+        <v>918</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C42" t="s">
+        <v>643</v>
+      </c>
+      <c r="D42" t="s">
+        <v>919</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" t="s">
+        <v>644</v>
+      </c>
+      <c r="D43" t="s">
+        <v>920</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" t="s">
+        <v>645</v>
+      </c>
+      <c r="D44" t="s">
+        <v>921</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" t="s">
+        <v>646</v>
+      </c>
+      <c r="D45" t="s">
+        <v>922</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>647</v>
+      </c>
+      <c r="D46" t="s">
+        <v>923</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" t="s">
+        <v>648</v>
+      </c>
+      <c r="D47" t="s">
+        <v>924</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" t="s">
+        <v>649</v>
+      </c>
+      <c r="D48" t="s">
+        <v>925</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" t="s">
+        <v>650</v>
+      </c>
+      <c r="D49" t="s">
+        <v>926</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
+        <v>651</v>
+      </c>
+      <c r="D50" t="s">
+        <v>927</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" t="s">
+        <v>652</v>
+      </c>
+      <c r="D51" t="s">
+        <v>928</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" t="s">
+        <v>929</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" t="s">
+        <v>654</v>
+      </c>
+      <c r="D53" t="s">
+        <v>930</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" t="s">
+        <v>655</v>
+      </c>
+      <c r="D54" t="s">
+        <v>931</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" t="s">
+        <v>656</v>
+      </c>
+      <c r="D55" t="s">
+        <v>932</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" t="s">
+        <v>657</v>
+      </c>
+      <c r="D56" t="s">
+        <v>933</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" t="s">
+        <v>658</v>
+      </c>
+      <c r="D57" t="s">
+        <v>934</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C58" t="s">
+        <v>659</v>
+      </c>
+      <c r="D58" t="s">
+        <v>935</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" t="s">
+        <v>660</v>
+      </c>
+      <c r="D59" t="s">
+        <v>936</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" t="s">
+        <v>661</v>
+      </c>
+      <c r="D60" t="s">
+        <v>937</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>662</v>
+      </c>
+      <c r="D61" t="s">
+        <v>938</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" t="s">
+        <v>663</v>
+      </c>
+      <c r="D62" t="s">
+        <v>939</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C63" t="s">
+        <v>664</v>
+      </c>
+      <c r="D63" t="s">
+        <v>940</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>367</v>
+      </c>
+      <c r="D64" t="s">
+        <v>941</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" t="s">
+        <v>665</v>
+      </c>
+      <c r="D65" t="s">
+        <v>942</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" t="s">
+        <v>666</v>
+      </c>
+      <c r="D66" t="s">
+        <v>943</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" t="s">
+        <v>667</v>
+      </c>
+      <c r="D67" t="s">
+        <v>944</v>
+      </c>
+      <c r="E67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" t="s">
+        <v>668</v>
+      </c>
+      <c r="D68" t="s">
+        <v>945</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" t="s">
+        <v>669</v>
+      </c>
+      <c r="D69" t="s">
+        <v>946</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" t="s">
+        <v>670</v>
+      </c>
+      <c r="D70" t="s">
+        <v>947</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" t="s">
+        <v>671</v>
+      </c>
+      <c r="D71" t="s">
+        <v>948</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" t="s">
+        <v>672</v>
+      </c>
+      <c r="D72" t="s">
+        <v>949</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" t="s">
+        <v>673</v>
+      </c>
+      <c r="D73" t="s">
+        <v>950</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" t="s">
+        <v>674</v>
+      </c>
+      <c r="D74" t="s">
+        <v>951</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>675</v>
+      </c>
+      <c r="D75" t="s">
+        <v>952</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" t="s">
+        <v>676</v>
+      </c>
+      <c r="D76" t="s">
+        <v>953</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" t="s">
+        <v>677</v>
+      </c>
+      <c r="D77" t="s">
+        <v>954</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" t="s">
+        <v>678</v>
+      </c>
+      <c r="D78" t="s">
+        <v>955</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" t="s">
+        <v>679</v>
+      </c>
+      <c r="D79" t="s">
+        <v>956</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" t="s">
+        <v>680</v>
+      </c>
+      <c r="D80" t="s">
+        <v>957</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" t="s">
+        <v>681</v>
+      </c>
+      <c r="D81" t="s">
+        <v>958</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" t="s">
+        <v>682</v>
+      </c>
+      <c r="D82" t="s">
+        <v>959</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" t="s">
+        <v>683</v>
+      </c>
+      <c r="D83" t="s">
+        <v>960</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" t="s">
+        <v>684</v>
+      </c>
+      <c r="D84" t="s">
+        <v>961</v>
+      </c>
+      <c r="E84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
+        <v>685</v>
+      </c>
+      <c r="D85" t="s">
+        <v>962</v>
+      </c>
+      <c r="E85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" t="s">
+        <v>686</v>
+      </c>
+      <c r="D86" t="s">
+        <v>963</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" t="s">
+        <v>687</v>
+      </c>
+      <c r="D87" t="s">
+        <v>964</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>391</v>
+      </c>
+      <c r="D88" t="s">
+        <v>965</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" t="s">
+        <v>688</v>
+      </c>
+      <c r="D89" t="s">
+        <v>966</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" t="s">
+        <v>689</v>
+      </c>
+      <c r="D90" t="s">
+        <v>967</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C91" t="s">
+        <v>690</v>
+      </c>
+      <c r="D91" t="s">
+        <v>968</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>395</v>
+      </c>
+      <c r="C92" t="s">
+        <v>691</v>
+      </c>
+      <c r="D92" t="s">
+        <v>969</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" t="s">
+        <v>692</v>
+      </c>
+      <c r="D93" t="s">
+        <v>970</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>397</v>
+      </c>
+      <c r="C94" t="s">
+        <v>609</v>
+      </c>
+      <c r="D94" t="s">
+        <v>971</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" t="s">
+        <v>693</v>
+      </c>
+      <c r="D95" t="s">
+        <v>972</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" t="s">
+        <v>694</v>
+      </c>
+      <c r="D96" t="s">
+        <v>973</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" t="s">
+        <v>695</v>
+      </c>
+      <c r="D97" t="s">
+        <v>974</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" t="s">
+        <v>696</v>
+      </c>
+      <c r="D98" t="s">
+        <v>975</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>402</v>
+      </c>
+      <c r="C99" t="s">
+        <v>697</v>
+      </c>
+      <c r="D99" t="s">
+        <v>976</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" t="s">
+        <v>698</v>
+      </c>
+      <c r="D100" t="s">
+        <v>977</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" t="s">
+        <v>699</v>
+      </c>
+      <c r="D101" t="s">
+        <v>978</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" t="s">
+        <v>700</v>
+      </c>
+      <c r="D102" t="s">
+        <v>979</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" t="s">
+        <v>701</v>
+      </c>
+      <c r="D103" t="s">
+        <v>980</v>
+      </c>
+      <c r="E103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>407</v>
+      </c>
+      <c r="C104" t="s">
+        <v>702</v>
+      </c>
+      <c r="D104" t="s">
+        <v>981</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" t="s">
+        <v>703</v>
+      </c>
+      <c r="D105" t="s">
+        <v>982</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" t="s">
+        <v>704</v>
+      </c>
+      <c r="D106" t="s">
+        <v>983</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>410</v>
+      </c>
+      <c r="C107" t="s">
+        <v>685</v>
+      </c>
+      <c r="D107" t="s">
+        <v>984</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>411</v>
+      </c>
+      <c r="C108" t="s">
+        <v>705</v>
+      </c>
+      <c r="D108" t="s">
+        <v>985</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>412</v>
+      </c>
+      <c r="C109" t="s">
+        <v>706</v>
+      </c>
+      <c r="D109" t="s">
+        <v>986</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>413</v>
+      </c>
+      <c r="D110" t="s">
+        <v>987</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>414</v>
+      </c>
+      <c r="C111" t="s">
+        <v>707</v>
+      </c>
+      <c r="D111" t="s">
+        <v>988</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" t="s">
+        <v>708</v>
+      </c>
+      <c r="D112" t="s">
+        <v>989</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>416</v>
+      </c>
+      <c r="C113" t="s">
+        <v>709</v>
+      </c>
+      <c r="D113" t="s">
+        <v>990</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>417</v>
+      </c>
+      <c r="C114" t="s">
+        <v>710</v>
+      </c>
+      <c r="D114" t="s">
+        <v>991</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" t="s">
+        <v>711</v>
+      </c>
+      <c r="D115" t="s">
+        <v>992</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>419</v>
+      </c>
+      <c r="C116" t="s">
+        <v>712</v>
+      </c>
+      <c r="D116" t="s">
+        <v>993</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" t="s">
+        <v>713</v>
+      </c>
+      <c r="D117" t="s">
+        <v>994</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" t="s">
+        <v>714</v>
+      </c>
+      <c r="D118" t="s">
+        <v>995</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" t="s">
+        <v>715</v>
+      </c>
+      <c r="D119" t="s">
+        <v>996</v>
+      </c>
+      <c r="E119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>423</v>
+      </c>
+      <c r="C120" t="s">
+        <v>716</v>
+      </c>
+      <c r="D120" t="s">
+        <v>997</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="E31" t="s">
+      <c r="B121" t="s">
+        <v>424</v>
+      </c>
+      <c r="C121" t="s">
+        <v>717</v>
+      </c>
+      <c r="D121" t="s">
+        <v>998</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>425</v>
+      </c>
+      <c r="C122" t="s">
+        <v>718</v>
+      </c>
+      <c r="D122" t="s">
+        <v>999</v>
+      </c>
+      <c r="E122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>426</v>
+      </c>
+      <c r="C123" t="s">
+        <v>719</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>427</v>
+      </c>
+      <c r="C124" t="s">
+        <v>720</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>428</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>429</v>
+      </c>
+      <c r="C126" t="s">
+        <v>721</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>430</v>
+      </c>
+      <c r="C127" t="s">
+        <v>722</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" t="s">
+        <v>723</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" t="s">
+        <v>724</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>433</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>434</v>
+      </c>
+      <c r="C131" t="s">
+        <v>725</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" t="s">
+        <v>726</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>436</v>
+      </c>
+      <c r="C133" t="s">
+        <v>727</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>437</v>
+      </c>
+      <c r="C134" t="s">
+        <v>728</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E134" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>438</v>
+      </c>
+      <c r="C135" t="s">
+        <v>729</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>439</v>
+      </c>
+      <c r="C136" t="s">
+        <v>730</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s">
+        <v>731</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>441</v>
+      </c>
+      <c r="C138" t="s">
+        <v>732</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" t="s">
+        <v>733</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>443</v>
+      </c>
+      <c r="C140" t="s">
+        <v>734</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
         <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>444</v>
+      </c>
+      <c r="C141" t="s">
+        <v>735</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C142" t="s">
+        <v>736</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>446</v>
+      </c>
+      <c r="C143" t="s">
+        <v>737</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>447</v>
+      </c>
+      <c r="C144" t="s">
+        <v>738</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>448</v>
+      </c>
+      <c r="C145" t="s">
+        <v>739</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>449</v>
+      </c>
+      <c r="C146" t="s">
+        <v>740</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>450</v>
+      </c>
+      <c r="C147" t="s">
+        <v>741</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" t="s">
+        <v>742</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E148" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" t="s">
+        <v>743</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>453</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>454</v>
+      </c>
+      <c r="C151" t="s">
+        <v>744</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>455</v>
+      </c>
+      <c r="C152" t="s">
+        <v>745</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" t="s">
+        <v>746</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" t="s">
+        <v>747</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>458</v>
+      </c>
+      <c r="C155" t="s">
+        <v>748</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" t="s">
+        <v>749</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>460</v>
+      </c>
+      <c r="C157" t="s">
+        <v>692</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>461</v>
+      </c>
+      <c r="C158" t="s">
+        <v>750</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>462</v>
+      </c>
+      <c r="C159" t="s">
+        <v>751</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>463</v>
+      </c>
+      <c r="C160" t="s">
+        <v>752</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>464</v>
+      </c>
+      <c r="C161" t="s">
+        <v>753</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>465</v>
+      </c>
+      <c r="C162" t="s">
+        <v>754</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>466</v>
+      </c>
+      <c r="C163" t="s">
+        <v>755</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>467</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>468</v>
+      </c>
+      <c r="C165" t="s">
+        <v>756</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>469</v>
+      </c>
+      <c r="C166" t="s">
+        <v>757</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>470</v>
+      </c>
+      <c r="C167" t="s">
+        <v>758</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>471</v>
+      </c>
+      <c r="C168" t="s">
+        <v>759</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>472</v>
+      </c>
+      <c r="C169" t="s">
+        <v>760</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E169" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>473</v>
+      </c>
+      <c r="C170" t="s">
+        <v>761</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>474</v>
+      </c>
+      <c r="C171" t="s">
+        <v>762</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>475</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" t="s">
+        <v>476</v>
+      </c>
+      <c r="C173" t="s">
+        <v>763</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>477</v>
+      </c>
+      <c r="C174" t="s">
+        <v>764</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" t="s">
+        <v>765</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>479</v>
+      </c>
+      <c r="C176" t="s">
+        <v>766</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" t="s">
+        <v>480</v>
+      </c>
+      <c r="C177" t="s">
+        <v>767</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>481</v>
+      </c>
+      <c r="C178" t="s">
+        <v>768</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>482</v>
+      </c>
+      <c r="C179" t="s">
+        <v>769</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" t="s">
+        <v>770</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" t="s">
+        <v>484</v>
+      </c>
+      <c r="C181" t="s">
+        <v>771</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>485</v>
+      </c>
+      <c r="C182" t="s">
+        <v>772</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>486</v>
+      </c>
+      <c r="C183" t="s">
+        <v>773</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>487</v>
+      </c>
+      <c r="C184" t="s">
+        <v>774</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>488</v>
+      </c>
+      <c r="C185" t="s">
+        <v>775</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>489</v>
+      </c>
+      <c r="C186" t="s">
+        <v>776</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" t="s">
+        <v>490</v>
+      </c>
+      <c r="C187" t="s">
+        <v>777</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>491</v>
+      </c>
+      <c r="C188" t="s">
+        <v>778</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>492</v>
+      </c>
+      <c r="C189" t="s">
+        <v>779</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E189" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>493</v>
+      </c>
+      <c r="C190" t="s">
+        <v>780</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>494</v>
+      </c>
+      <c r="C191" t="s">
+        <v>781</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>495</v>
+      </c>
+      <c r="C192" t="s">
+        <v>782</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E192" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193" t="s">
+        <v>783</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>497</v>
+      </c>
+      <c r="C194" t="s">
+        <v>784</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>498</v>
+      </c>
+      <c r="C195" t="s">
+        <v>785</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>499</v>
+      </c>
+      <c r="C196" t="s">
+        <v>786</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>500</v>
+      </c>
+      <c r="C197" t="s">
+        <v>787</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>501</v>
+      </c>
+      <c r="C198" t="s">
+        <v>788</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" t="s">
+        <v>502</v>
+      </c>
+      <c r="C199" t="s">
+        <v>789</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>503</v>
+      </c>
+      <c r="C200" t="s">
+        <v>790</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" t="s">
+        <v>504</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>505</v>
+      </c>
+      <c r="C202" t="s">
+        <v>791</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>506</v>
+      </c>
+      <c r="C203" t="s">
+        <v>792</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>507</v>
+      </c>
+      <c r="C204" t="s">
+        <v>793</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" t="s">
+        <v>508</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>509</v>
+      </c>
+      <c r="C206" t="s">
+        <v>794</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>510</v>
+      </c>
+      <c r="C207" t="s">
+        <v>795</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>511</v>
+      </c>
+      <c r="C208" t="s">
+        <v>796</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E208" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="s">
+        <v>512</v>
+      </c>
+      <c r="C209" t="s">
+        <v>797</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>513</v>
+      </c>
+      <c r="C210" t="s">
+        <v>798</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>514</v>
+      </c>
+      <c r="C211" t="s">
+        <v>799</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>515</v>
+      </c>
+      <c r="C212" t="s">
+        <v>800</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>516</v>
+      </c>
+      <c r="C213" t="s">
+        <v>801</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>517</v>
+      </c>
+      <c r="C214" t="s">
+        <v>802</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" t="s">
+        <v>518</v>
+      </c>
+      <c r="C215" t="s">
+        <v>803</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>519</v>
+      </c>
+      <c r="C216" t="s">
+        <v>804</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" t="s">
+        <v>520</v>
+      </c>
+      <c r="C217" t="s">
+        <v>805</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>521</v>
+      </c>
+      <c r="C218" t="s">
+        <v>806</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>522</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>523</v>
+      </c>
+      <c r="C220" t="s">
+        <v>807</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E220" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>524</v>
+      </c>
+      <c r="C221" t="s">
+        <v>808</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>525</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>526</v>
+      </c>
+      <c r="C223" t="s">
+        <v>809</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>527</v>
+      </c>
+      <c r="C224" t="s">
+        <v>810</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" t="s">
+        <v>528</v>
+      </c>
+      <c r="C225" t="s">
+        <v>811</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>529</v>
+      </c>
+      <c r="C226" t="s">
+        <v>812</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" t="s">
+        <v>530</v>
+      </c>
+      <c r="C227" t="s">
+        <v>813</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" t="s">
+        <v>531</v>
+      </c>
+      <c r="C228" t="s">
+        <v>814</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>532</v>
+      </c>
+      <c r="C229" t="s">
+        <v>815</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>533</v>
+      </c>
+      <c r="C230" t="s">
+        <v>816</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>534</v>
+      </c>
+      <c r="C231" t="s">
+        <v>817</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E231" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" t="s">
+        <v>535</v>
+      </c>
+      <c r="C232" t="s">
+        <v>818</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>536</v>
+      </c>
+      <c r="C233" t="s">
+        <v>819</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>537</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" t="s">
+        <v>538</v>
+      </c>
+      <c r="C235" t="s">
+        <v>820</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E235" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" t="s">
+        <v>539</v>
+      </c>
+      <c r="C236" t="s">
+        <v>821</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" t="s">
+        <v>540</v>
+      </c>
+      <c r="C237" t="s">
+        <v>822</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" t="s">
+        <v>541</v>
+      </c>
+      <c r="C238" t="s">
+        <v>823</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" t="s">
+        <v>542</v>
+      </c>
+      <c r="C239" t="s">
+        <v>824</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>543</v>
+      </c>
+      <c r="C240" t="s">
+        <v>825</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>544</v>
+      </c>
+      <c r="C241" t="s">
+        <v>826</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" t="s">
+        <v>545</v>
+      </c>
+      <c r="C242" t="s">
+        <v>827</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E242" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" t="s">
+        <v>546</v>
+      </c>
+      <c r="C243" t="s">
+        <v>828</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" t="s">
+        <v>547</v>
+      </c>
+      <c r="C244" t="s">
+        <v>829</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" t="s">
+        <v>548</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" t="s">
+        <v>549</v>
+      </c>
+      <c r="C246" t="s">
+        <v>830</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" t="s">
+        <v>550</v>
+      </c>
+      <c r="C247" t="s">
+        <v>831</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" t="s">
+        <v>551</v>
+      </c>
+      <c r="C248" t="s">
+        <v>832</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" t="s">
+        <v>552</v>
+      </c>
+      <c r="C249" t="s">
+        <v>833</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>553</v>
+      </c>
+      <c r="C250" t="s">
+        <v>834</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>554</v>
+      </c>
+      <c r="C251" t="s">
+        <v>835</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" t="s">
+        <v>555</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" t="s">
+        <v>556</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" t="s">
+        <v>557</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" t="s">
+        <v>558</v>
+      </c>
+      <c r="C255" t="s">
+        <v>836</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" t="s">
+        <v>559</v>
+      </c>
+      <c r="C256" t="s">
+        <v>837</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257" t="s">
+        <v>560</v>
+      </c>
+      <c r="C257" t="s">
+        <v>838</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258" t="s">
+        <v>561</v>
+      </c>
+      <c r="C258" t="s">
+        <v>839</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259" t="s">
+        <v>562</v>
+      </c>
+      <c r="C259" t="s">
+        <v>840</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" t="s">
+        <v>563</v>
+      </c>
+      <c r="C260" t="s">
+        <v>841</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261" t="s">
+        <v>564</v>
+      </c>
+      <c r="C261" t="s">
+        <v>842</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E261" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" t="s">
+        <v>565</v>
+      </c>
+      <c r="C262" t="s">
+        <v>843</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263" t="s">
+        <v>566</v>
+      </c>
+      <c r="C263" t="s">
+        <v>844</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264" t="s">
+        <v>567</v>
+      </c>
+      <c r="C264" t="s">
+        <v>845</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" t="s">
+        <v>568</v>
+      </c>
+      <c r="C265" t="s">
+        <v>846</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E265" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" t="s">
+        <v>569</v>
+      </c>
+      <c r="C266" t="s">
+        <v>847</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267" t="s">
+        <v>570</v>
+      </c>
+      <c r="C267" t="s">
+        <v>848</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268" t="s">
+        <v>571</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269" t="s">
+        <v>572</v>
+      </c>
+      <c r="C269" t="s">
+        <v>849</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" t="s">
+        <v>573</v>
+      </c>
+      <c r="C270" t="s">
+        <v>850</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E270" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" t="s">
+        <v>574</v>
+      </c>
+      <c r="C271" t="s">
+        <v>851</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" t="s">
+        <v>575</v>
+      </c>
+      <c r="C272" t="s">
+        <v>852</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" t="s">
+        <v>576</v>
+      </c>
+      <c r="C273" t="s">
+        <v>853</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" t="s">
+        <v>577</v>
+      </c>
+      <c r="C274" t="s">
+        <v>854</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275" t="s">
+        <v>578</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" t="s">
+        <v>579</v>
+      </c>
+      <c r="C276" t="s">
+        <v>855</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277" t="s">
+        <v>580</v>
+      </c>
+      <c r="C277" t="s">
+        <v>856</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" t="s">
+        <v>581</v>
+      </c>
+      <c r="C278" t="s">
+        <v>857</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" t="s">
+        <v>582</v>
+      </c>
+      <c r="C279" t="s">
+        <v>858</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" t="s">
+        <v>583</v>
+      </c>
+      <c r="C280" t="s">
+        <v>859</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" t="s">
+        <v>584</v>
+      </c>
+      <c r="C281" t="s">
+        <v>860</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" t="s">
+        <v>585</v>
+      </c>
+      <c r="C282" t="s">
+        <v>861</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" t="s">
+        <v>586</v>
+      </c>
+      <c r="C283" t="s">
+        <v>862</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284" t="s">
+        <v>587</v>
+      </c>
+      <c r="C284" t="s">
+        <v>863</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" t="s">
+        <v>588</v>
+      </c>
+      <c r="C285" t="s">
+        <v>864</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" t="s">
+        <v>589</v>
+      </c>
+      <c r="C286" t="s">
+        <v>865</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E286" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" t="s">
+        <v>590</v>
+      </c>
+      <c r="C287" t="s">
+        <v>866</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E287" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288" t="s">
+        <v>591</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" t="s">
+        <v>592</v>
+      </c>
+      <c r="C289" t="s">
+        <v>867</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" t="s">
+        <v>593</v>
+      </c>
+      <c r="C290" t="s">
+        <v>868</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" t="s">
+        <v>594</v>
+      </c>
+      <c r="C291" t="s">
+        <v>869</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" t="s">
+        <v>595</v>
+      </c>
+      <c r="C292" t="s">
+        <v>870</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" t="s">
+        <v>596</v>
+      </c>
+      <c r="C293" t="s">
+        <v>871</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" t="s">
+        <v>597</v>
+      </c>
+      <c r="C294" t="s">
+        <v>872</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295" t="s">
+        <v>598</v>
+      </c>
+      <c r="C295" t="s">
+        <v>802</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296" t="s">
+        <v>599</v>
+      </c>
+      <c r="C296" t="s">
+        <v>873</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" t="s">
+        <v>600</v>
+      </c>
+      <c r="C297" t="s">
+        <v>874</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E297" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298" t="s">
+        <v>601</v>
+      </c>
+      <c r="C298" t="s">
+        <v>875</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E298" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" t="s">
+        <v>602</v>
+      </c>
+      <c r="C299" t="s">
+        <v>876</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" t="s">
+        <v>603</v>
+      </c>
+      <c r="C300" t="s">
+        <v>877</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" t="s">
+        <v>604</v>
+      </c>
+      <c r="C301" t="s">
+        <v>878</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E301" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
